--- a/data/trans_dic/P37-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P37-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,53; 17,0</t>
+          <t>10,59; 17,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,89; 19,16</t>
+          <t>12,01; 19,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,62; 19,07</t>
+          <t>11,61; 19,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,43; 42,01</t>
+          <t>33,36; 41,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,76; 16,24</t>
+          <t>8,77; 16,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 16,1</t>
+          <t>8,3; 15,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,67; 17,45</t>
+          <t>9,68; 17,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,5; 40,3</t>
+          <t>32,65; 40,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,79; 15,58</t>
+          <t>10,71; 15,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,18; 16,53</t>
+          <t>11,1; 16,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,71; 17,12</t>
+          <t>11,84; 17,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,37; 39,94</t>
+          <t>34,21; 40,2</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,47; 20,44</t>
+          <t>12,4; 20,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,33; 23,26</t>
+          <t>14,86; 23,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,24; 17,54</t>
+          <t>10,1; 17,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,5; 41,55</t>
+          <t>32,83; 41,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,64; 10,21</t>
+          <t>4,72; 10,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,47; 13,39</t>
+          <t>6,55; 13,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,32; 11,91</t>
+          <t>6,25; 12,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,44; 34,41</t>
+          <t>26,77; 34,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,3; 14,28</t>
+          <t>9,35; 13,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,03; 18,15</t>
+          <t>11,88; 17,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,09; 13,8</t>
+          <t>9,01; 13,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,97; 37,38</t>
+          <t>31,02; 37,0</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,04; 15,4</t>
+          <t>9,81; 15,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,88; 21,13</t>
+          <t>14,77; 21,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,21; 20,59</t>
+          <t>14,25; 20,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 33,3</t>
+          <t>7,52; 33,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,63; 18,42</t>
+          <t>8,23; 18,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,44; 17,18</t>
+          <t>8,73; 17,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,72; 25,43</t>
+          <t>11,6; 24,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,93; 44,91</t>
+          <t>33,88; 45,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,39; 15,21</t>
+          <t>10,22; 15,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,63; 18,72</t>
+          <t>13,75; 18,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,41; 20,23</t>
+          <t>14,54; 20,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,68; 35,19</t>
+          <t>9,99; 35,17</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,46; 18,74</t>
+          <t>14,6; 18,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,4; 22,06</t>
+          <t>17,5; 22,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,94; 19,28</t>
+          <t>15,05; 19,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,37; 36,43</t>
+          <t>30,55; 36,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,63; 15,7</t>
+          <t>10,65; 15,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,96; 14,75</t>
+          <t>9,83; 14,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,31; 15,38</t>
+          <t>10,05; 14,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,77; 70,66</t>
+          <t>29,94; 72,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,71; 16,97</t>
+          <t>13,72; 17,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,02; 18,37</t>
+          <t>15,07; 18,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,59; 16,65</t>
+          <t>13,56; 16,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,72; 58,28</t>
+          <t>31,65; 56,57</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,83; 18,32</t>
+          <t>10,37; 18,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,98; 21,87</t>
+          <t>15,16; 22,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,65; 21,54</t>
+          <t>15,32; 21,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,4; 30,71</t>
+          <t>23,35; 31,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,4; 17,69</t>
+          <t>11,24; 17,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,85; 22,8</t>
+          <t>17,03; 22,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,18; 19,62</t>
+          <t>13,95; 19,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,75; 36,39</t>
+          <t>23,7; 36,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,92; 16,56</t>
+          <t>12,06; 16,78</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,19; 21,39</t>
+          <t>17,15; 21,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,39; 19,56</t>
+          <t>15,61; 19,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>24,95; 33,28</t>
+          <t>24,39; 33,06</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,76</t>
+          <t>2,28; 6,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,35; 12,73</t>
+          <t>5,42; 12,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,39; 9,9</t>
+          <t>3,4; 9,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,83; 11,19</t>
+          <t>2,77; 10,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,88; 24,6</t>
+          <t>19,94; 24,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,61; 30,07</t>
+          <t>24,73; 30,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,57; 28,06</t>
+          <t>22,49; 28,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>42,78; 49,5</t>
+          <t>42,49; 49,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,72; 20,67</t>
+          <t>16,71; 20,68</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>21,49; 26,11</t>
+          <t>21,56; 26,08</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,97; 23,66</t>
+          <t>18,78; 23,59</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>33,05; 39,17</t>
+          <t>33,27; 39,34</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,83; 15,13</t>
+          <t>12,73; 15,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,33; 19,34</t>
+          <t>16,35; 19,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,36; 17,07</t>
+          <t>14,51; 16,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,73; 31,99</t>
+          <t>22,72; 31,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,65; 17,11</t>
+          <t>14,69; 17,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,86; 19,69</t>
+          <t>16,92; 19,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,98; 18,71</t>
+          <t>15,82; 18,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,65; 49,82</t>
+          <t>34,79; 50,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,04; 15,79</t>
+          <t>14,04; 15,69</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,02; 18,92</t>
+          <t>16,92; 18,89</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,65; 17,5</t>
+          <t>15,56; 17,34</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>31,18; 41,2</t>
+          <t>30,98; 40,62</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha vacunado de la gripe en la última campaña</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>63472</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>66167</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>65425</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>191081</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>37724</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>36364</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>45905</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>162997</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>101196</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>102531</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>111330</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>354078</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>50172; 81192</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>52396; 84474</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>49818; 81700</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>168547; 210397</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26909; 49454</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26091; 49455</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33593; 60356</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>146112; 179960</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>83557; 120207</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>83344; 125240</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>91926; 132997</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>325916; 382984</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>58175</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>79382</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>50447</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>167865</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>25859</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>32042</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33273</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>116029</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>84034</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>111424</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>83720</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>283895</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>45499; 74953</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>62227; 99107</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>38096; 64591</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>148445; 187514</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17512; 38098</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>22062; 46256</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23254; 46118</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>102434; 132244</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>68951; 102195</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>89777; 132047</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>67510; 104861</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>258971; 308899</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>67735</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>111915</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>89818</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>136014</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>21106</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>32217</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29054</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>65771</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>88842</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>144132</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>118872</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>201785</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>53233; 82979</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>92816; 134704</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>74377; 106989</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>50268; 222763</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13810; 31240</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22709; 45073</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19270; 40928</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>56553; 76502</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>72545; 107335</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>122173; 168040</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>100020; 140869</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>83444; 293728</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>203650</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>228279</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>195982</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>345683</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>92890</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>92838</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>102128</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>443947</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>296541</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>321117</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>298110</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>789629</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>180794; 232023</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>202852; 256610</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>172981; 223003</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>316102; 377880</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>76080; 111088</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>75336; 111263</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>82999; 120972</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>292837; 705024</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>267968; 333400</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>290195; 354751</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>267814; 331475</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>637141; 1138797</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>49450</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>93974</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>114229</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>128895</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>80708</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>150367</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>124101</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>266515</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>130158</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>244341</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>238330</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>395410</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36259; 64593</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>77239; 112538</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>95099; 134533</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>110902; 148983</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>63924; 97776</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>129664; 172610</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>103010; 144645</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>198802; 304974</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>110801; 154077</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>218011; 274640</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>212135; 267301</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>320440; 434482</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>12003</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>22444</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>16974</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>12981</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>277055</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>303496</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>273886</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>350434</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>289058</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>325941</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>290860</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>363415</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6769; 20177</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>14357; 34394</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>9777; 27099</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6667; 26427</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>248759; 308031</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>274370; 336230</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>243337; 303640</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>323534; 375573</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>258131; 319479</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>296345; 358440</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>257198; 322969</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>333317; 394159</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2196</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1147</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1057</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3497</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>454486</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>602161</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>532876</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>982519</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>535342</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>647326</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>608346</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1405692</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>989828</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1249487</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1141222</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2388211</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>416200; 493455</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>558810; 651477</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>491185; 573598</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>766921; 1078157</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>496126; 581322</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>600523; 697359</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>558653; 653862</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1243874; 1809090</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>932910; 1042821</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1178917; 1315924</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1076405; 1199428</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2153703; 2823420</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P37-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P37-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
